--- a/Statistics/Normality_Test_Statistics.xlsx
+++ b/Statistics/Normality_Test_Statistics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/OneDrive - Uniklinik RWTH Aachen/Paper/PilotStudie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/OneDrive - Uniklinik RWTH Aachen/Paper/PilotStudie/Statistic/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="4700" windowWidth="27360" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="11040" yWindow="4440" windowWidth="27360" windowHeight="15880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,14 +219,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,7 +521,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:I26"/>
+      <selection sqref="A1:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,581 +531,642 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.86447274684905995</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>9.4080800190567901E-3</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.96766221523284901</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.70494687557220403</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.95240807533264105</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.40512806177139199</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.95314300060272195</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.41732889413833602</v>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.96400493383407504</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.626556515693664</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.87533921003341597</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>1.46020632237195E-2</v>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.94566881656646695</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.30607914924621499</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.95941531658172596</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.53223514556884699</v>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.88064944744110096</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.8175037577748299E-2</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.95133811235427801</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.38785907626152</v>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.70636689662933305</v>
       </c>
       <c r="C10" s="1">
         <v>4.6662891691084897E-5</v>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.90843194723129195</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>5.9502448886632898E-2</v>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.93419557809829701</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.18589939177036199</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.94898933172225897</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.35200899839401201</v>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.97060173749923695</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.76753133535385099</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.96790748834609897</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.71021914482116699</v>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.91709411144256503</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>8.7122641503810799E-2</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.96692949533462502</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>0.68917912244796697</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>0.89127534627914395</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>2.8385613113641701E-2</v>
       </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.942643642425537</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>0.268882185220718</v>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>0.63294446468353205</v>
       </c>
       <c r="C16" s="1">
         <v>6.58972339806496E-6</v>
       </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>0.89472067356109597</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>3.28714996576309E-2</v>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0.87412405014037997</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1.3893865980207899E-2</v>
       </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>0.913355112075805</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>7.38662779331207E-2</v>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.75009238719940097</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1.70246436027809E-4</v>
       </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.918759405612945</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>9.3786157667636802E-2</v>
       </c>
-      <c r="I18" t="b">
+      <c r="I18" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>0.88591164350509599</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>2.2636169567704201E-2</v>
       </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.96841770410537698</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>0.72117018699645996</v>
       </c>
-      <c r="I19" t="b">
+      <c r="I19" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>0.87341421842574996</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1.34970815852284E-2</v>
       </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>0.95515096187591497</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>0.45205783843994102</v>
       </c>
-      <c r="I20" t="b">
+      <c r="I20" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>0.77724850177764804</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>4.0327542228624198E-4</v>
       </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>0.92443037033080999</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>0.120605461299419</v>
       </c>
-      <c r="I21" t="b">
+      <c r="I21" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>0.95423924922943104</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.43603777885437001</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>0.95558649301528897</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>0.45985525846481301</v>
       </c>
-      <c r="I22" t="b">
+      <c r="I22" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>0.81675243377685502</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>1.5526989009231301E-3</v>
       </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>0.96110278367996205</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>0.56610888242721502</v>
       </c>
-      <c r="I23" t="b">
+      <c r="I23" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>0.66193950176239003</v>
       </c>
       <c r="C24" s="1">
         <v>1.38700770548894E-5</v>
       </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>0.90438103675842196</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>4.9860786646604503E-2</v>
       </c>
-      <c r="I24" t="b">
+      <c r="I24" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>0.92664515972137396</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>0.13306543231010401</v>
       </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.93761491775512695</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>0.21605990827083499</v>
       </c>
-      <c r="I25" t="b">
+      <c r="I25" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>0.49694210290908802</v>
       </c>
       <c r="C26" s="1">
         <v>2.98292889056028E-7</v>
       </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>0.52438235282897905</v>
       </c>
       <c r="H26" s="1">
         <v>5.3237653219184701E-7</v>
       </c>
-      <c r="I26" t="b">
+      <c r="I26" s="1" t="b">
         <v>0</v>
       </c>
     </row>
